--- a/experiment/xlsx/experiments_Mälardalen_matmult_circle_pi4.xlsx
+++ b/experiment/xlsx/experiments_Mälardalen_matmult_circle_pi4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
   <si>
     <t xml:space="preserve">xrtos or circle</t>
   </si>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES1_INPUTSIZE20</t>
   </si>
   <si>
-    <t xml:space="preserve">'4679'</t>
+    <t xml:space="preserve">'5689'</t>
   </si>
   <si>
     <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES1_INPUTSIZE50</t>
@@ -160,19 +160,19 @@
     <t xml:space="preserve">'3222'</t>
   </si>
   <si>
+    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE90</t>
+  </si>
+  <si>
     <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE90</t>
   </si>
   <si>
     <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE110</t>
@@ -454,13 +454,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ75"/>
+  <dimension ref="A1:AMJ74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.28"/>
@@ -470,7 +470,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="83.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="83.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="15.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.81"/>
@@ -1288,7 +1288,7 @@
         <v>30</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>131072</v>
@@ -1301,15 +1301,15 @@
       </c>
       <c r="R13" s="16" t="n">
         <f aca="false">INT(T13/U13)</f>
-        <v>237347</v>
+        <v>1300</v>
       </c>
       <c r="S13" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>4746952</v>
+        <f aca="false">S$3</f>
+        <v>26008</v>
       </c>
       <c r="T13" s="16" t="n">
         <f aca="false">INT(S13/10)</f>
-        <v>474695</v>
+        <v>2600</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>2</v>
@@ -1360,7 +1360,7 @@
         <v>30</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>131072</v>
@@ -1373,15 +1373,15 @@
       </c>
       <c r="R14" s="16" t="n">
         <f aca="false">INT(T14/U14)</f>
-        <v>1300</v>
+        <v>15768</v>
       </c>
       <c r="S14" s="0" t="n">
-        <f aca="false">S$3</f>
-        <v>26008</v>
+        <f aca="false">S$4</f>
+        <v>315372</v>
       </c>
       <c r="T14" s="16" t="n">
         <f aca="false">INT(S14/10)</f>
-        <v>2600</v>
+        <v>31537</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>2</v>
@@ -1432,7 +1432,7 @@
         <v>30</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>131072</v>
@@ -1445,15 +1445,15 @@
       </c>
       <c r="R15" s="16" t="n">
         <f aca="false">INT(T15/U15)</f>
-        <v>15768</v>
+        <v>83797</v>
       </c>
       <c r="S15" s="0" t="n">
-        <f aca="false">S$4</f>
-        <v>315372</v>
+        <f aca="false">S$5</f>
+        <v>1675942</v>
       </c>
       <c r="T15" s="16" t="n">
         <f aca="false">INT(S15/10)</f>
-        <v>31537</v>
+        <v>167594</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>2</v>
@@ -1504,7 +1504,7 @@
         <v>30</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>131072</v>
@@ -1517,15 +1517,15 @@
       </c>
       <c r="R16" s="16" t="n">
         <f aca="false">INT(T16/U16)</f>
-        <v>83797</v>
+        <v>119211</v>
       </c>
       <c r="S16" s="0" t="n">
-        <f aca="false">S$5</f>
-        <v>1675942</v>
+        <f aca="false">S$6</f>
+        <v>2384227</v>
       </c>
       <c r="T16" s="16" t="n">
         <f aca="false">INT(S16/10)</f>
-        <v>167594</v>
+        <v>238422</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>2</v>
@@ -1576,7 +1576,7 @@
         <v>30</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>131072</v>
@@ -1589,15 +1589,15 @@
       </c>
       <c r="R17" s="16" t="n">
         <f aca="false">INT(T17/U17)</f>
-        <v>119211</v>
+        <v>237347</v>
       </c>
       <c r="S17" s="0" t="n">
-        <f aca="false">S$6</f>
-        <v>2384227</v>
+        <f aca="false">S$7</f>
+        <v>4746952</v>
       </c>
       <c r="T17" s="16" t="n">
         <f aca="false">INT(S17/10)</f>
-        <v>238422</v>
+        <v>474695</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>2</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>30</v>
@@ -1648,7 +1648,7 @@
         <v>30</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>131072</v>
@@ -1661,19 +1661,21 @@
       </c>
       <c r="R18" s="16" t="n">
         <f aca="false">INT(T18/U18)</f>
-        <v>237347</v>
+        <v>212649</v>
       </c>
       <c r="S18" s="0" t="n">
-        <f aca="false">S$7</f>
-        <v>4746952</v>
+        <f aca="false">S$8</f>
+        <v>4252987</v>
       </c>
       <c r="T18" s="16" t="n">
         <f aca="false">INT(S18/10)</f>
-        <v>474695</v>
+        <v>425298</v>
       </c>
       <c r="U18" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -1705,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>30</v>
@@ -1720,7 +1722,7 @@
         <v>30</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>131072</v>
@@ -1733,15 +1735,15 @@
       </c>
       <c r="R19" s="16" t="n">
         <f aca="false">INT(T19/U19)</f>
-        <v>212649</v>
+        <v>282925</v>
       </c>
       <c r="S19" s="0" t="n">
-        <f aca="false">S$8</f>
-        <v>4252987</v>
+        <f aca="false">S$9</f>
+        <v>5658517</v>
       </c>
       <c r="T19" s="16" t="n">
         <f aca="false">INT(S19/10)</f>
-        <v>425298</v>
+        <v>565851</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>2</v>
@@ -1779,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>30</v>
@@ -1794,7 +1796,7 @@
         <v>30</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="O20" s="0" t="n">
         <v>131072</v>
@@ -1807,15 +1809,15 @@
       </c>
       <c r="R20" s="16" t="n">
         <f aca="false">INT(T20/U20)</f>
-        <v>282925</v>
+        <v>539676</v>
       </c>
       <c r="S20" s="0" t="n">
-        <f aca="false">S$9</f>
-        <v>5658517</v>
+        <f aca="false">S$10</f>
+        <v>10793537</v>
       </c>
       <c r="T20" s="16" t="n">
         <f aca="false">INT(S20/10)</f>
-        <v>565851</v>
+        <v>1079353</v>
       </c>
       <c r="U20" s="0" t="n">
         <v>2</v>
@@ -1824,78 +1826,18 @@
       <c r="W20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <f aca="false">A20+1</f>
-        <v>19</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="15" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>131072</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>131072</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>131072</v>
-      </c>
-      <c r="R21" s="16" t="n">
-        <f aca="false">INT(T21/U21)</f>
-        <v>539676</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <f aca="false">S$10</f>
-        <v>10793537</v>
-      </c>
-      <c r="T21" s="16" t="n">
-        <f aca="false">INT(S21/10)</f>
-        <v>1079353</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
@@ -2008,6 +1950,11 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
@@ -2583,27 +2530,27 @@
       <c r="A60" s="0"/>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
+      <c r="V60" s="0"/>
+      <c r="W60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0"/>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="V61" s="0"/>
-      <c r="W61" s="0"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0"/>
@@ -2852,25 +2799,6 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0"/>
-      <c r="B75" s="0"/>
-      <c r="C75" s="0"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/experiment/xlsx/experiments_Mälardalen_matmult_circle_pi4.xlsx
+++ b/experiment/xlsx/experiments_Mälardalen_matmult_circle_pi4.xlsx
@@ -457,10 +457,10 @@
   <dimension ref="A1:AMJ74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.28"/>
@@ -637,14 +637,14 @@
       </c>
       <c r="R3" s="13" t="n">
         <f aca="false">INT(T3/U3)</f>
-        <v>1300</v>
+        <v>1020</v>
       </c>
       <c r="S3" s="14" t="n">
-        <v>26008</v>
+        <v>20403</v>
       </c>
       <c r="T3" s="13" t="n">
         <f aca="false">INT(S3/10)</f>
-        <v>2600</v>
+        <v>2040</v>
       </c>
       <c r="U3" s="11" t="n">
         <v>2</v>
@@ -702,14 +702,14 @@
       </c>
       <c r="R4" s="13" t="n">
         <f aca="false">INT(T4/U4)</f>
-        <v>15768</v>
+        <v>15679</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>315372</v>
+        <v>313588</v>
       </c>
       <c r="T4" s="13" t="n">
         <f aca="false">INT(S4/10)</f>
-        <v>31537</v>
+        <v>31358</v>
       </c>
       <c r="U4" s="11" t="n">
         <v>2</v>
@@ -767,14 +767,14 @@
       </c>
       <c r="R5" s="13" t="n">
         <f aca="false">INT(T5/U5)</f>
-        <v>83797</v>
+        <v>83660</v>
       </c>
       <c r="S5" s="14" t="n">
-        <v>1675942</v>
+        <v>1673203</v>
       </c>
       <c r="T5" s="13" t="n">
         <f aca="false">INT(S5/10)</f>
-        <v>167594</v>
+        <v>167320</v>
       </c>
       <c r="U5" s="11" t="n">
         <v>2</v>
@@ -832,14 +832,14 @@
       </c>
       <c r="R6" s="13" t="n">
         <f aca="false">INT(T6/U6)</f>
-        <v>119211</v>
+        <v>119061</v>
       </c>
       <c r="S6" s="14" t="n">
-        <v>2384227</v>
+        <v>2381226</v>
       </c>
       <c r="T6" s="13" t="n">
         <f aca="false">INT(S6/10)</f>
-        <v>238422</v>
+        <v>238122</v>
       </c>
       <c r="U6" s="11" t="n">
         <v>2</v>
@@ -897,14 +897,14 @@
       </c>
       <c r="R7" s="13" t="n">
         <f aca="false">INT(T7/U7)</f>
-        <v>237347</v>
+        <v>237740</v>
       </c>
       <c r="S7" s="14" t="n">
-        <v>4746952</v>
+        <v>4754819</v>
       </c>
       <c r="T7" s="13" t="n">
         <f aca="false">INT(S7/10)</f>
-        <v>474695</v>
+        <v>475481</v>
       </c>
       <c r="U7" s="11" t="n">
         <v>2</v>
@@ -962,14 +962,14 @@
       </c>
       <c r="R8" s="13" t="n">
         <f aca="false">INT(T8/U8)</f>
-        <v>212649</v>
+        <v>212477</v>
       </c>
       <c r="S8" s="14" t="n">
-        <v>4252987</v>
+        <v>4249541</v>
       </c>
       <c r="T8" s="13" t="n">
         <f aca="false">INT(S8/10)</f>
-        <v>425298</v>
+        <v>424954</v>
       </c>
       <c r="U8" s="11" t="n">
         <v>2</v>
@@ -1027,14 +1027,14 @@
       </c>
       <c r="R9" s="13" t="n">
         <f aca="false">INT(T9/U9)</f>
-        <v>282925</v>
+        <v>282927</v>
       </c>
       <c r="S9" s="14" t="n">
-        <v>5658517</v>
+        <v>5658556</v>
       </c>
       <c r="T9" s="13" t="n">
         <f aca="false">INT(S9/10)</f>
-        <v>565851</v>
+        <v>565855</v>
       </c>
       <c r="U9" s="11" t="n">
         <v>2</v>
@@ -1092,14 +1092,14 @@
       </c>
       <c r="R10" s="13" t="n">
         <f aca="false">INT(T10/U10)</f>
-        <v>539676</v>
+        <v>538966</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>10793537</v>
+        <v>10779339</v>
       </c>
       <c r="T10" s="13" t="n">
         <f aca="false">INT(S10/10)</f>
-        <v>1079353</v>
+        <v>1077933</v>
       </c>
       <c r="U10" s="11" t="n">
         <v>2</v>
@@ -1149,7 +1149,7 @@
         <v>100</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>0</v>
@@ -1159,15 +1159,15 @@
       </c>
       <c r="R11" s="16" t="n">
         <f aca="false">INT(T11/U11)</f>
-        <v>237347</v>
+        <v>237740</v>
       </c>
       <c r="S11" s="0" t="n">
         <f aca="false">S$7</f>
-        <v>4746952</v>
+        <v>4754819</v>
       </c>
       <c r="T11" s="16" t="n">
         <f aca="false">INT(S11/10)</f>
-        <v>474695</v>
+        <v>475481</v>
       </c>
       <c r="U11" s="0" t="n">
         <v>2</v>
@@ -1219,25 +1219,25 @@
         <v>100</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="R12" s="16" t="n">
         <f aca="false">INT(T12/U12)</f>
-        <v>237347</v>
+        <v>237740</v>
       </c>
       <c r="S12" s="0" t="n">
         <f aca="false">S$7</f>
-        <v>4746952</v>
+        <v>4754819</v>
       </c>
       <c r="T12" s="16" t="n">
         <f aca="false">INT(S12/10)</f>
-        <v>474695</v>
+        <v>475481</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>2</v>
@@ -1291,25 +1291,25 @@
         <v>20</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="R13" s="16" t="n">
         <f aca="false">INT(T13/U13)</f>
-        <v>1300</v>
+        <v>1020</v>
       </c>
       <c r="S13" s="0" t="n">
         <f aca="false">S$3</f>
-        <v>26008</v>
+        <v>20403</v>
       </c>
       <c r="T13" s="16" t="n">
         <f aca="false">INT(S13/10)</f>
-        <v>2600</v>
+        <v>2040</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>2</v>
@@ -1363,25 +1363,25 @@
         <v>50</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="R14" s="16" t="n">
         <f aca="false">INT(T14/U14)</f>
-        <v>15768</v>
+        <v>15679</v>
       </c>
       <c r="S14" s="0" t="n">
         <f aca="false">S$4</f>
-        <v>315372</v>
+        <v>313588</v>
       </c>
       <c r="T14" s="16" t="n">
         <f aca="false">INT(S14/10)</f>
-        <v>31537</v>
+        <v>31358</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>2</v>
@@ -1435,25 +1435,25 @@
         <v>80</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="R15" s="16" t="n">
         <f aca="false">INT(T15/U15)</f>
-        <v>83797</v>
+        <v>83660</v>
       </c>
       <c r="S15" s="0" t="n">
         <f aca="false">S$5</f>
-        <v>1675942</v>
+        <v>1673203</v>
       </c>
       <c r="T15" s="16" t="n">
         <f aca="false">INT(S15/10)</f>
-        <v>167594</v>
+        <v>167320</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>2</v>
@@ -1507,25 +1507,25 @@
         <v>90</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="R16" s="16" t="n">
         <f aca="false">INT(T16/U16)</f>
-        <v>119211</v>
+        <v>119061</v>
       </c>
       <c r="S16" s="0" t="n">
         <f aca="false">S$6</f>
-        <v>2384227</v>
+        <v>2381226</v>
       </c>
       <c r="T16" s="16" t="n">
         <f aca="false">INT(S16/10)</f>
-        <v>238422</v>
+        <v>238122</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>2</v>
@@ -1579,25 +1579,25 @@
         <v>100</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="R17" s="16" t="n">
         <f aca="false">INT(T17/U17)</f>
-        <v>237347</v>
+        <v>237740</v>
       </c>
       <c r="S17" s="0" t="n">
         <f aca="false">S$7</f>
-        <v>4746952</v>
+        <v>4754819</v>
       </c>
       <c r="T17" s="16" t="n">
         <f aca="false">INT(S17/10)</f>
-        <v>474695</v>
+        <v>475481</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>2</v>
@@ -1651,25 +1651,25 @@
         <v>110</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="R18" s="16" t="n">
         <f aca="false">INT(T18/U18)</f>
-        <v>212649</v>
+        <v>212477</v>
       </c>
       <c r="S18" s="0" t="n">
         <f aca="false">S$8</f>
-        <v>4252987</v>
+        <v>4249541</v>
       </c>
       <c r="T18" s="16" t="n">
         <f aca="false">INT(S18/10)</f>
-        <v>425298</v>
+        <v>424954</v>
       </c>
       <c r="U18" s="0" t="n">
         <v>2</v>
@@ -1725,25 +1725,25 @@
         <v>120</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="R19" s="16" t="n">
         <f aca="false">INT(T19/U19)</f>
-        <v>282925</v>
+        <v>282927</v>
       </c>
       <c r="S19" s="0" t="n">
         <f aca="false">S$9</f>
-        <v>5658517</v>
+        <v>5658556</v>
       </c>
       <c r="T19" s="16" t="n">
         <f aca="false">INT(S19/10)</f>
-        <v>565851</v>
+        <v>565855</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>2</v>
@@ -1799,25 +1799,25 @@
         <v>150</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="R20" s="16" t="n">
         <f aca="false">INT(T20/U20)</f>
-        <v>539676</v>
+        <v>538966</v>
       </c>
       <c r="S20" s="0" t="n">
         <f aca="false">S$10</f>
-        <v>10793537</v>
+        <v>10779339</v>
       </c>
       <c r="T20" s="16" t="n">
         <f aca="false">INT(S20/10)</f>
-        <v>1079353</v>
+        <v>1077933</v>
       </c>
       <c r="U20" s="0" t="n">
         <v>2</v>

--- a/experiment/xlsx/experiments_Mälardalen_matmult_circle_pi4.xlsx
+++ b/experiment/xlsx/experiments_Mälardalen_matmult_circle_pi4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
   <si>
     <t xml:space="preserve">xrtos or circle</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_WRITEATTACK1_INPUTSIZE150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCH_MÄLARDALEN_MATMULT_CORES4_MEMORYPROFILE_INPUTSIZE100</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
   <dimension ref="A1:AMJ74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.28"/>
@@ -637,14 +640,14 @@
       </c>
       <c r="R3" s="13" t="n">
         <f aca="false">INT(T3/U3)</f>
-        <v>1020</v>
+        <v>1325</v>
       </c>
       <c r="S3" s="14" t="n">
-        <v>20403</v>
+        <v>26512</v>
       </c>
       <c r="T3" s="13" t="n">
         <f aca="false">INT(S3/10)</f>
-        <v>2040</v>
+        <v>2651</v>
       </c>
       <c r="U3" s="11" t="n">
         <v>2</v>
@@ -702,14 +705,14 @@
       </c>
       <c r="R4" s="13" t="n">
         <f aca="false">INT(T4/U4)</f>
-        <v>15679</v>
+        <v>15690</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>313588</v>
+        <v>313813</v>
       </c>
       <c r="T4" s="13" t="n">
         <f aca="false">INT(S4/10)</f>
-        <v>31358</v>
+        <v>31381</v>
       </c>
       <c r="U4" s="11" t="n">
         <v>2</v>
@@ -767,14 +770,14 @@
       </c>
       <c r="R5" s="13" t="n">
         <f aca="false">INT(T5/U5)</f>
-        <v>83660</v>
+        <v>83701</v>
       </c>
       <c r="S5" s="14" t="n">
-        <v>1673203</v>
+        <v>1674035</v>
       </c>
       <c r="T5" s="13" t="n">
         <f aca="false">INT(S5/10)</f>
-        <v>167320</v>
+        <v>167403</v>
       </c>
       <c r="U5" s="11" t="n">
         <v>2</v>
@@ -832,14 +835,14 @@
       </c>
       <c r="R6" s="13" t="n">
         <f aca="false">INT(T6/U6)</f>
-        <v>119061</v>
+        <v>119180</v>
       </c>
       <c r="S6" s="14" t="n">
-        <v>2381226</v>
+        <v>2383600</v>
       </c>
       <c r="T6" s="13" t="n">
         <f aca="false">INT(S6/10)</f>
-        <v>238122</v>
+        <v>238360</v>
       </c>
       <c r="U6" s="11" t="n">
         <v>2</v>
@@ -897,14 +900,14 @@
       </c>
       <c r="R7" s="13" t="n">
         <f aca="false">INT(T7/U7)</f>
-        <v>237740</v>
+        <v>236874</v>
       </c>
       <c r="S7" s="14" t="n">
-        <v>4754819</v>
+        <v>4737490</v>
       </c>
       <c r="T7" s="13" t="n">
         <f aca="false">INT(S7/10)</f>
-        <v>475481</v>
+        <v>473749</v>
       </c>
       <c r="U7" s="11" t="n">
         <v>2</v>
@@ -962,14 +965,14 @@
       </c>
       <c r="R8" s="13" t="n">
         <f aca="false">INT(T8/U8)</f>
-        <v>212477</v>
+        <v>212537</v>
       </c>
       <c r="S8" s="14" t="n">
-        <v>4249541</v>
+        <v>4250745</v>
       </c>
       <c r="T8" s="13" t="n">
         <f aca="false">INT(S8/10)</f>
-        <v>424954</v>
+        <v>425074</v>
       </c>
       <c r="U8" s="11" t="n">
         <v>2</v>
@@ -1027,14 +1030,14 @@
       </c>
       <c r="R9" s="13" t="n">
         <f aca="false">INT(T9/U9)</f>
-        <v>282927</v>
+        <v>282926</v>
       </c>
       <c r="S9" s="14" t="n">
-        <v>5658556</v>
+        <v>5658527</v>
       </c>
       <c r="T9" s="13" t="n">
         <f aca="false">INT(S9/10)</f>
-        <v>565855</v>
+        <v>565852</v>
       </c>
       <c r="U9" s="11" t="n">
         <v>2</v>
@@ -1092,14 +1095,14 @@
       </c>
       <c r="R10" s="13" t="n">
         <f aca="false">INT(T10/U10)</f>
-        <v>538966</v>
+        <v>538383</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>10779339</v>
+        <v>10767679</v>
       </c>
       <c r="T10" s="13" t="n">
         <f aca="false">INT(S10/10)</f>
-        <v>1077933</v>
+        <v>1076767</v>
       </c>
       <c r="U10" s="11" t="n">
         <v>2</v>
@@ -1148,26 +1151,26 @@
       <c r="N11" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="O11" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
+      <c r="O11" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>1048576</v>
       </c>
       <c r="R11" s="16" t="n">
         <f aca="false">INT(T11/U11)</f>
-        <v>237740</v>
+        <v>236874</v>
       </c>
       <c r="S11" s="0" t="n">
         <f aca="false">S$7</f>
-        <v>4754819</v>
+        <v>4737490</v>
       </c>
       <c r="T11" s="16" t="n">
         <f aca="false">INT(S11/10)</f>
-        <v>475481</v>
+        <v>473749</v>
       </c>
       <c r="U11" s="0" t="n">
         <v>2</v>
@@ -1218,26 +1221,26 @@
       <c r="N12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="O12" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0</v>
+      <c r="O12" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>1048576</v>
       </c>
       <c r="R12" s="16" t="n">
         <f aca="false">INT(T12/U12)</f>
-        <v>237740</v>
+        <v>236874</v>
       </c>
       <c r="S12" s="0" t="n">
         <f aca="false">S$7</f>
-        <v>4754819</v>
+        <v>4737490</v>
       </c>
       <c r="T12" s="16" t="n">
         <f aca="false">INT(S12/10)</f>
-        <v>475481</v>
+        <v>473749</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>2</v>
@@ -1290,26 +1293,26 @@
       <c r="N13" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="O13" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>4096</v>
+      <c r="O13" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>1048576</v>
       </c>
       <c r="R13" s="16" t="n">
         <f aca="false">INT(T13/U13)</f>
-        <v>1020</v>
+        <v>1325</v>
       </c>
       <c r="S13" s="0" t="n">
         <f aca="false">S$3</f>
-        <v>20403</v>
+        <v>26512</v>
       </c>
       <c r="T13" s="16" t="n">
         <f aca="false">INT(S13/10)</f>
-        <v>2040</v>
+        <v>2651</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>2</v>
@@ -1362,26 +1365,26 @@
       <c r="N14" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="O14" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>4096</v>
+      <c r="O14" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>1048576</v>
       </c>
       <c r="R14" s="16" t="n">
         <f aca="false">INT(T14/U14)</f>
-        <v>15679</v>
+        <v>15690</v>
       </c>
       <c r="S14" s="0" t="n">
         <f aca="false">S$4</f>
-        <v>313588</v>
+        <v>313813</v>
       </c>
       <c r="T14" s="16" t="n">
         <f aca="false">INT(S14/10)</f>
-        <v>31358</v>
+        <v>31381</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>2</v>
@@ -1434,26 +1437,26 @@
       <c r="N15" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="O15" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>4096</v>
+      <c r="O15" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>1048576</v>
       </c>
       <c r="R15" s="16" t="n">
         <f aca="false">INT(T15/U15)</f>
-        <v>83660</v>
+        <v>83701</v>
       </c>
       <c r="S15" s="0" t="n">
         <f aca="false">S$5</f>
-        <v>1673203</v>
+        <v>1674035</v>
       </c>
       <c r="T15" s="16" t="n">
         <f aca="false">INT(S15/10)</f>
-        <v>167320</v>
+        <v>167403</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>2</v>
@@ -1506,26 +1509,26 @@
       <c r="N16" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="O16" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>4096</v>
+      <c r="O16" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>1048576</v>
       </c>
       <c r="R16" s="16" t="n">
         <f aca="false">INT(T16/U16)</f>
-        <v>119061</v>
+        <v>119180</v>
       </c>
       <c r="S16" s="0" t="n">
         <f aca="false">S$6</f>
-        <v>2381226</v>
+        <v>2383600</v>
       </c>
       <c r="T16" s="16" t="n">
         <f aca="false">INT(S16/10)</f>
-        <v>238122</v>
+        <v>238360</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>2</v>
@@ -1578,26 +1581,26 @@
       <c r="N17" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="O17" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>4096</v>
+      <c r="O17" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>1048576</v>
       </c>
       <c r="R17" s="16" t="n">
         <f aca="false">INT(T17/U17)</f>
-        <v>237740</v>
+        <v>236874</v>
       </c>
       <c r="S17" s="0" t="n">
         <f aca="false">S$7</f>
-        <v>4754819</v>
+        <v>4737490</v>
       </c>
       <c r="T17" s="16" t="n">
         <f aca="false">INT(S17/10)</f>
-        <v>475481</v>
+        <v>473749</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>2</v>
@@ -1650,26 +1653,26 @@
       <c r="N18" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="O18" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>4096</v>
+      <c r="O18" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>1048576</v>
       </c>
       <c r="R18" s="16" t="n">
         <f aca="false">INT(T18/U18)</f>
-        <v>212477</v>
+        <v>212537</v>
       </c>
       <c r="S18" s="0" t="n">
         <f aca="false">S$8</f>
-        <v>4249541</v>
+        <v>4250745</v>
       </c>
       <c r="T18" s="16" t="n">
         <f aca="false">INT(S18/10)</f>
-        <v>424954</v>
+        <v>425074</v>
       </c>
       <c r="U18" s="0" t="n">
         <v>2</v>
@@ -1724,26 +1727,26 @@
       <c r="N19" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="O19" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>4096</v>
+      <c r="O19" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>1048576</v>
       </c>
       <c r="R19" s="16" t="n">
         <f aca="false">INT(T19/U19)</f>
-        <v>282927</v>
+        <v>282926</v>
       </c>
       <c r="S19" s="0" t="n">
         <f aca="false">S$9</f>
-        <v>5658556</v>
+        <v>5658527</v>
       </c>
       <c r="T19" s="16" t="n">
         <f aca="false">INT(S19/10)</f>
-        <v>565855</v>
+        <v>565852</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>2</v>
@@ -1798,26 +1801,26 @@
       <c r="N20" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="O20" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>4096</v>
+      <c r="O20" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>1048576</v>
       </c>
       <c r="R20" s="16" t="n">
         <f aca="false">INT(T20/U20)</f>
-        <v>538966</v>
+        <v>538383</v>
       </c>
       <c r="S20" s="0" t="n">
         <f aca="false">S$10</f>
-        <v>10779339</v>
+        <v>10767679</v>
       </c>
       <c r="T20" s="16" t="n">
         <f aca="false">INT(S20/10)</f>
-        <v>1077933</v>
+        <v>1076767</v>
       </c>
       <c r="U20" s="0" t="n">
         <v>2</v>
@@ -1826,18 +1829,68 @@
       <c r="W20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="A21" s="0" t="n">
+        <f aca="false">A20+1</f>
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="15" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
+      <c r="N21" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="R21" s="16" t="n">
+        <f aca="false">INT(T21/U21)/2</f>
+        <v>118437</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <f aca="false">S$7</f>
+        <v>4737490</v>
+      </c>
+      <c r="T21" s="16" t="n">
+        <f aca="false">INT(S21/10)</f>
+        <v>473749</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>

--- a/experiment/xlsx/experiments_Mälardalen_matmult_circle_pi4.xlsx
+++ b/experiment/xlsx/experiments_Mälardalen_matmult_circle_pi4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t xml:space="preserve">xrtos or circle</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">cycles per count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synbench repeat</t>
   </si>
   <si>
     <t xml:space="preserve">circle</t>
@@ -311,7 +314,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -352,8 +355,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -372,12 +375,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -459,11 +470,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V21" activeCellId="0" sqref="V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.28"/>
@@ -585,7 +596,9 @@
       <c r="U2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="10"/>
+      <c r="V2" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="X2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
@@ -594,16 +607,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="11" t="n">
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="12" t="n">
         <f aca="false">TRUE()</f>
@@ -618,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -652,6 +665,7 @@
       <c r="U3" s="11" t="n">
         <v>2</v>
       </c>
+      <c r="V3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -659,16 +673,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="12" t="n">
         <f aca="false">TRUE()</f>
@@ -683,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -717,6 +731,7 @@
       <c r="U4" s="11" t="n">
         <v>2</v>
       </c>
+      <c r="V4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -724,16 +739,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="12" t="n">
         <f aca="false">TRUE()</f>
@@ -748,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -782,6 +797,7 @@
       <c r="U5" s="11" t="n">
         <v>2</v>
       </c>
+      <c r="V5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -789,16 +805,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="11" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="12" t="n">
         <f aca="false">TRUE()</f>
@@ -813,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -847,6 +863,7 @@
       <c r="U6" s="11" t="n">
         <v>2</v>
       </c>
+      <c r="V6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -854,16 +871,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="11" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="12" t="n">
         <f aca="false">TRUE()</f>
@@ -878,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -912,6 +929,7 @@
       <c r="U7" s="11" t="n">
         <v>2</v>
       </c>
+      <c r="V7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -919,16 +937,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="11" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="12" t="n">
         <f aca="false">TRUE()</f>
@@ -943,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -977,6 +995,7 @@
       <c r="U8" s="11" t="n">
         <v>2</v>
       </c>
+      <c r="V8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
@@ -984,16 +1003,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="11" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="12" t="n">
         <f aca="false">TRUE()</f>
@@ -1008,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -1042,6 +1061,7 @@
       <c r="U9" s="11" t="n">
         <v>2</v>
       </c>
+      <c r="V9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
@@ -1049,16 +1069,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="11" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="12" t="n">
         <f aca="false">TRUE()</f>
@@ -1073,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -1107,6 +1127,7 @@
       <c r="U10" s="11" t="n">
         <v>2</v>
       </c>
+      <c r="V10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -1114,37 +1135,37 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1160,7 +1181,7 @@
       <c r="Q11" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R11" s="16" t="n">
+      <c r="R11" s="17" t="n">
         <f aca="false">INT(T11/U11)</f>
         <v>236874</v>
       </c>
@@ -1168,12 +1189,15 @@
         <f aca="false">S$7</f>
         <v>4737490</v>
       </c>
-      <c r="T11" s="16" t="n">
+      <c r="T11" s="17" t="n">
         <f aca="false">INT(S11/10)</f>
         <v>473749</v>
       </c>
       <c r="U11" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,40 +1206,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="15" t="n">
+        <v>43</v>
+      </c>
+      <c r="F12" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="n">
@@ -1230,7 +1254,7 @@
       <c r="Q12" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R12" s="16" t="n">
+      <c r="R12" s="17" t="n">
         <f aca="false">INT(T12/U12)</f>
         <v>236874</v>
       </c>
@@ -1238,12 +1262,15 @@
         <f aca="false">S$7</f>
         <v>4737490</v>
       </c>
-      <c r="T12" s="16" t="n">
+      <c r="T12" s="17" t="n">
         <f aca="false">INT(S12/10)</f>
         <v>473749</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,43 +1279,43 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="15" t="n">
+        <v>46</v>
+      </c>
+      <c r="F13" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>20</v>
@@ -1302,7 +1329,7 @@
       <c r="Q13" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R13" s="16" t="n">
+      <c r="R13" s="17" t="n">
         <f aca="false">INT(T13/U13)</f>
         <v>1325</v>
       </c>
@@ -1310,12 +1337,15 @@
         <f aca="false">S$3</f>
         <v>26512</v>
       </c>
-      <c r="T13" s="16" t="n">
+      <c r="T13" s="17" t="n">
         <f aca="false">INT(S13/10)</f>
         <v>2651</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,43 +1354,43 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H14" s="15" t="n">
+        <v>46</v>
+      </c>
+      <c r="F14" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>50</v>
@@ -1374,7 +1404,7 @@
       <c r="Q14" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R14" s="16" t="n">
+      <c r="R14" s="17" t="n">
         <f aca="false">INT(T14/U14)</f>
         <v>15690</v>
       </c>
@@ -1382,12 +1412,15 @@
         <f aca="false">S$4</f>
         <v>313813</v>
       </c>
-      <c r="T14" s="16" t="n">
+      <c r="T14" s="17" t="n">
         <f aca="false">INT(S14/10)</f>
         <v>31381</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,43 +1429,43 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="15" t="n">
+        <v>46</v>
+      </c>
+      <c r="F15" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>80</v>
@@ -1446,7 +1479,7 @@
       <c r="Q15" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R15" s="16" t="n">
+      <c r="R15" s="17" t="n">
         <f aca="false">INT(T15/U15)</f>
         <v>83701</v>
       </c>
@@ -1454,12 +1487,15 @@
         <f aca="false">S$5</f>
         <v>1674035</v>
       </c>
-      <c r="T15" s="16" t="n">
+      <c r="T15" s="17" t="n">
         <f aca="false">INT(S15/10)</f>
         <v>167403</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,43 +1504,43 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="15" t="n">
+        <v>46</v>
+      </c>
+      <c r="F16" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>90</v>
@@ -1518,7 +1554,7 @@
       <c r="Q16" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R16" s="16" t="n">
+      <c r="R16" s="17" t="n">
         <f aca="false">INT(T16/U16)</f>
         <v>119180</v>
       </c>
@@ -1526,12 +1562,15 @@
         <f aca="false">S$6</f>
         <v>2383600</v>
       </c>
-      <c r="T16" s="16" t="n">
+      <c r="T16" s="17" t="n">
         <f aca="false">INT(S16/10)</f>
         <v>238360</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,43 +1579,43 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="15" t="n">
+        <v>46</v>
+      </c>
+      <c r="F17" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>100</v>
@@ -1590,7 +1629,7 @@
       <c r="Q17" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R17" s="16" t="n">
+      <c r="R17" s="17" t="n">
         <f aca="false">INT(T17/U17)</f>
         <v>236874</v>
       </c>
@@ -1598,12 +1637,15 @@
         <f aca="false">S$7</f>
         <v>4737490</v>
       </c>
-      <c r="T17" s="16" t="n">
+      <c r="T17" s="17" t="n">
         <f aca="false">INT(S17/10)</f>
         <v>473749</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,43 +1654,43 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="15" t="n">
+        <v>46</v>
+      </c>
+      <c r="F18" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>110</v>
@@ -1662,7 +1704,7 @@
       <c r="Q18" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R18" s="16" t="n">
+      <c r="R18" s="17" t="n">
         <f aca="false">INT(T18/U18)</f>
         <v>212537</v>
       </c>
@@ -1670,14 +1712,16 @@
         <f aca="false">S$8</f>
         <v>4250745</v>
       </c>
-      <c r="T18" s="16" t="n">
+      <c r="T18" s="17" t="n">
         <f aca="false">INT(S18/10)</f>
         <v>425074</v>
       </c>
       <c r="U18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V18" s="0"/>
+      <c r="V18" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="W18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,43 +1730,43 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H19" s="15" t="n">
+        <v>46</v>
+      </c>
+      <c r="F19" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>120</v>
@@ -1736,7 +1780,7 @@
       <c r="Q19" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R19" s="16" t="n">
+      <c r="R19" s="17" t="n">
         <f aca="false">INT(T19/U19)</f>
         <v>282926</v>
       </c>
@@ -1744,14 +1788,16 @@
         <f aca="false">S$9</f>
         <v>5658527</v>
       </c>
-      <c r="T19" s="16" t="n">
+      <c r="T19" s="17" t="n">
         <f aca="false">INT(S19/10)</f>
         <v>565852</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V19" s="0"/>
+      <c r="V19" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="W19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,43 +1806,43 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H20" s="15" t="n">
+        <v>46</v>
+      </c>
+      <c r="F20" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>150</v>
@@ -1810,7 +1856,7 @@
       <c r="Q20" s="1" t="n">
         <v>1048576</v>
       </c>
-      <c r="R20" s="16" t="n">
+      <c r="R20" s="17" t="n">
         <f aca="false">INT(T20/U20)</f>
         <v>538383</v>
       </c>
@@ -1818,14 +1864,16 @@
         <f aca="false">S$10</f>
         <v>10767679</v>
       </c>
-      <c r="T20" s="16" t="n">
+      <c r="T20" s="17" t="n">
         <f aca="false">INT(S20/10)</f>
         <v>1076767</v>
       </c>
       <c r="U20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V20" s="0"/>
+      <c r="V20" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="W20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,31 +1882,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="15" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="15" t="n">
+        <v>46</v>
+      </c>
+      <c r="F21" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="16" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="16" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1876,7 +1924,7 @@
       <c r="Q21" s="1" t="n">
         <v>2048</v>
       </c>
-      <c r="R21" s="16" t="n">
+      <c r="R21" s="17" t="n">
         <f aca="false">INT(T21/U21)/2</f>
         <v>118437</v>
       </c>
@@ -1884,12 +1932,15 @@
         <f aca="false">S$7</f>
         <v>4737490</v>
       </c>
-      <c r="T21" s="16" t="n">
+      <c r="T21" s="17" t="n">
         <f aca="false">INT(S21/10)</f>
         <v>473749</v>
       </c>
       <c r="U21" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="V21" s="18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,9 +1949,9 @@
       <c r="C22" s="0"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1912,9 +1963,9 @@
       <c r="C23" s="0"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1926,9 +1977,9 @@
       <c r="C24" s="0"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1940,9 +1991,9 @@
       <c r="C25" s="0"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1954,9 +2005,9 @@
       <c r="C26" s="0"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1968,9 +2019,9 @@
       <c r="C27" s="0"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1982,9 +2033,9 @@
       <c r="C28" s="0"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1996,9 +2047,9 @@
       <c r="C29" s="0"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2015,9 +2066,9 @@
       <c r="C30" s="0"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2034,9 +2085,9 @@
       <c r="C31" s="0"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2053,9 +2104,9 @@
       <c r="C32" s="0"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2072,9 +2123,9 @@
       <c r="C33" s="0"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2091,9 +2142,9 @@
       <c r="C34" s="0"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2110,9 +2161,9 @@
       <c r="C35" s="0"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2129,9 +2180,9 @@
       <c r="C36" s="0"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2148,9 +2199,9 @@
       <c r="C37" s="0"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2167,9 +2218,9 @@
       <c r="C38" s="0"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2186,9 +2237,9 @@
       <c r="C39" s="0"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2205,9 +2256,9 @@
       <c r="C40" s="0"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2224,9 +2275,9 @@
       <c r="C41" s="0"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2243,9 +2294,9 @@
       <c r="C42" s="0"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2262,9 +2313,9 @@
       <c r="C43" s="0"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2281,9 +2332,9 @@
       <c r="C44" s="0"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2300,9 +2351,9 @@
       <c r="C45" s="0"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2319,9 +2370,9 @@
       <c r="C46" s="0"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2338,9 +2389,9 @@
       <c r="C47" s="0"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2357,9 +2408,9 @@
       <c r="C48" s="0"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2376,9 +2427,9 @@
       <c r="C49" s="0"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2395,9 +2446,9 @@
       <c r="C50" s="0"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -2414,9 +2465,9 @@
       <c r="C51" s="0"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2433,9 +2484,9 @@
       <c r="C52" s="0"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2452,9 +2503,9 @@
       <c r="C53" s="0"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -2471,9 +2522,9 @@
       <c r="C54" s="0"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -2490,9 +2541,9 @@
       <c r="C55" s="0"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -2509,9 +2560,9 @@
       <c r="C56" s="0"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -2528,9 +2579,9 @@
       <c r="C57" s="0"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -2547,9 +2598,9 @@
       <c r="C58" s="0"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -2566,9 +2617,9 @@
       <c r="C59" s="0"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -2592,9 +2643,9 @@
       <c r="C61" s="0"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -2611,9 +2662,9 @@
       <c r="C62" s="0"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -2630,9 +2681,9 @@
       <c r="C63" s="0"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -2649,9 +2700,9 @@
       <c r="C64" s="0"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -2668,9 +2719,9 @@
       <c r="C65" s="0"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -2687,9 +2738,9 @@
       <c r="C66" s="0"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -2706,9 +2757,9 @@
       <c r="C67" s="0"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -2725,9 +2776,9 @@
       <c r="C68" s="0"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -2744,9 +2795,9 @@
       <c r="C69" s="0"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -2763,9 +2814,9 @@
       <c r="C70" s="0"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -2782,9 +2833,9 @@
       <c r="C71" s="0"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -2801,9 +2852,9 @@
       <c r="C72" s="0"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -2820,9 +2871,9 @@
       <c r="C73" s="0"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -2839,9 +2890,9 @@
       <c r="C74" s="0"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
